--- a/Running projects/Dolmen City Family Area/VO/003- Variation order for Pipe insulation (NBR).xlsx
+++ b/Running projects/Dolmen City Family Area/VO/003- Variation order for Pipe insulation (NBR).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED95BC-B574-482F-8039-8ED430B4004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDDBC6-0577-4131-8CEA-E7E00BCD57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -115,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -284,15 +284,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,18 +305,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,19 +325,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,13 +357,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -528,16 +528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>449562</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>132512</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>684068</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>54578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7853796" y="2623705"/>
-          <a:ext cx="7316221" cy="6401693"/>
+          <a:off x="86591" y="10390908"/>
+          <a:ext cx="6710795" cy="6401693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
